--- a/config_11.3/permission_server_config.xlsx
+++ b/config_11.3/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1877">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8678,34 +8678,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2020年11月9日23:59:59结束</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利（11.2）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>market_channel</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>vivo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非小米渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>非vivo渠道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_task_xyxfl_041</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>xrzx_newplayer</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8735,19 +8711,26 @@
     <t>每日特惠礼包_小额用户 （冲金鸡）</t>
   </si>
   <si>
-    <t>actp_own_task_wsj_tc_040</t>
-  </si>
-  <si>
-    <t>非新玩家</t>
-  </si>
-  <si>
-    <t>2020年11月2日23:59:59结束</t>
-  </si>
-  <si>
     <t>cjj</t>
   </si>
   <si>
     <t>冲金鸡的全渠道</t>
+  </si>
+  <si>
+    <t>非小米、vivo才显示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非CPS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_xyxfl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8965,7 +8948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9234,13 +9217,6 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9518,11 +9494,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q407"/>
+  <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B413" sqref="B413"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A409" sqref="A409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13839,13 +13815,24 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="27" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="B407" s="27" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="C407" s="3">
         <v>91</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="3" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C409" s="3">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -13860,11 +13847,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B333" sqref="B333"/>
+      <selection pane="bottomRight" activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24948,10 +24935,10 @@
         <v>1</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="G328" s="26">
         <v>334</v>
@@ -24980,10 +24967,10 @@
         <v>1</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="G329" s="26">
         <v>334</v>
@@ -25012,10 +24999,10 @@
         <v>1</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="G330" s="26">
         <v>334</v>
@@ -25044,10 +25031,10 @@
         <v>1</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="G331" s="26">
         <v>335</v>
@@ -25068,71 +25055,18 @@
         <v>469</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A332" s="26">
-        <v>331</v>
-      </c>
-      <c r="B332" s="26">
-        <v>1</v>
-      </c>
-      <c r="C332" s="26" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D332" s="26" t="s">
-        <v>1878</v>
-      </c>
-      <c r="G332" s="26">
-        <v>336</v>
-      </c>
-      <c r="H332" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I332" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="26" t="s">
-        <v>468</v>
-      </c>
-      <c r="K332" s="26">
-        <v>1603756800</v>
-      </c>
-      <c r="L332" s="26" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="100">
-        <v>332</v>
-      </c>
-      <c r="B333" s="100">
-        <v>1</v>
-      </c>
-      <c r="C333" s="101" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D333" s="101" t="s">
-        <v>1862</v>
-      </c>
-      <c r="E333" s="100"/>
-      <c r="F333" s="100"/>
-      <c r="G333" s="100">
-        <v>337</v>
-      </c>
-      <c r="H333" s="100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I333" s="102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="101" t="s">
-        <v>1143</v>
-      </c>
-      <c r="K333" s="100">
-        <v>1604359800</v>
-      </c>
-      <c r="L333" s="101" t="s">
-        <v>1861</v>
-      </c>
+    <row r="332" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="17"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="16"/>
+      <c r="D332" s="16"/>
+      <c r="E332" s="17"/>
+      <c r="F332" s="17"/>
+      <c r="G332" s="17"/>
+      <c r="H332" s="17"/>
+      <c r="J332" s="16"/>
+      <c r="K332" s="17"/>
+      <c r="L332" s="16"/>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
@@ -25161,10 +25095,10 @@
   <dimension ref="A1:I858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C833" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E832" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C855" sqref="C855"/>
+      <selection pane="bottomRight" activeCell="G844" sqref="G844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44147,7 +44081,7 @@
         <v>328</v>
       </c>
       <c r="C823" s="53" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D823" s="9" t="s">
         <v>1778</v>
@@ -44547,7 +44481,7 @@
         <v>898</v>
       </c>
       <c r="D840" s="9" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="E840" s="9">
         <v>2</v>
@@ -44556,7 +44490,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="9" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.2">
@@ -44599,7 +44533,7 @@
         <v>898</v>
       </c>
       <c r="D842" s="9" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="E842" s="9">
         <v>2</v>
@@ -44608,7 +44542,7 @@
         <v>1</v>
       </c>
       <c r="G842" s="9" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.2">
@@ -44645,7 +44579,7 @@
         <v>898</v>
       </c>
       <c r="D844" s="99" t="s">
-        <v>1778</v>
+        <v>1874</v>
       </c>
       <c r="E844" s="98">
         <v>5</v>
@@ -44654,31 +44588,12 @@
         <v>1</v>
       </c>
       <c r="G844" s="99" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="845" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A845" s="98">
-        <v>844</v>
-      </c>
-      <c r="B845" s="98">
-        <v>337</v>
-      </c>
-      <c r="C845" s="98" t="s">
-        <v>898</v>
-      </c>
-      <c r="D845" s="99" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E845" s="98">
-        <v>5</v>
-      </c>
-      <c r="F845" s="98">
-        <v>1</v>
-      </c>
-      <c r="G845" s="99" t="s">
-        <v>1866</v>
-      </c>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D845" s="10"/>
+      <c r="G845" s="10"/>
     </row>
     <row r="854" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D854" s="10"/>
@@ -44709,7 +44624,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44942,7 +44857,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_11.3/permission_server_config.xlsx
+++ b/config_11.3/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="1871">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8707,6 +8707,14 @@
   </si>
   <si>
     <t>actp_own_task_p_task_xyxfl_041</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>xrzx_newplayer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享（新人才展示）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9478,11 +9486,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q405"/>
+  <dimension ref="A1:Q407"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A387" sqref="A387:C387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13795,6 +13803,17 @@
       </c>
       <c r="C405" s="3">
         <v>333</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="27" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B407" s="27" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C407" s="3">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -24936,7 +24955,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I841"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E812" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_11.3/permission_server_config.xlsx
+++ b/config_11.3/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4375" uniqueCount="1882">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8690,10 +8690,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>xiaomi</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>vivo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8716,6 +8712,42 @@
   <si>
     <t>新人专享（新人才展示）</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10346</t>
+  </si>
+  <si>
+    <t>每日特惠礼包_免费用户   （冲金鸡）</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10347</t>
+  </si>
+  <si>
+    <t>每日特惠礼包_免费用户 （冲金鸡）</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10348</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10349</t>
+  </si>
+  <si>
+    <t>每日特惠礼包_小额用户 （冲金鸡）</t>
+  </si>
+  <si>
+    <t>actp_own_task_wsj_tc_040</t>
+  </si>
+  <si>
+    <t>非新玩家</t>
+  </si>
+  <si>
+    <t>2020年11月2日23:59:59结束</t>
+  </si>
+  <si>
+    <t>cjj</t>
+  </si>
+  <si>
+    <t>冲金鸡的全渠道</t>
   </si>
 </sst>
 </file>
@@ -9488,9 +9520,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B407" sqref="B407"/>
+      <selection pane="bottomLeft" activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13807,10 +13839,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="27" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B407" s="27" t="s">
         <v>1869</v>
-      </c>
-      <c r="B407" s="27" t="s">
-        <v>1870</v>
       </c>
       <c r="C407" s="3">
         <v>91</v>
@@ -13826,13 +13858,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O328"/>
+  <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E302" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H328" sqref="H328"/>
+      <selection pane="bottomRight" activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24908,39 +24940,212 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="328" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="100">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A328" s="26">
         <v>327</v>
       </c>
-      <c r="B328" s="100">
-        <v>1</v>
-      </c>
-      <c r="C328" s="101" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D328" s="101" t="s">
+      <c r="B328" s="26">
+        <v>1</v>
+      </c>
+      <c r="C328" s="26" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D328" s="26" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G328" s="26">
+        <v>334</v>
+      </c>
+      <c r="H328" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K328" s="26">
+        <v>0</v>
+      </c>
+      <c r="L328" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A329" s="26">
+        <v>328</v>
+      </c>
+      <c r="B329" s="26">
+        <v>1</v>
+      </c>
+      <c r="C329" s="26" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D329" s="26" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G329" s="26">
+        <v>334</v>
+      </c>
+      <c r="H329" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I329" t="b">
+        <v>1</v>
+      </c>
+      <c r="J329" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K329" s="26">
+        <v>0</v>
+      </c>
+      <c r="L329" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A330" s="26">
+        <v>329</v>
+      </c>
+      <c r="B330" s="26">
+        <v>1</v>
+      </c>
+      <c r="C330" s="26" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D330" s="26" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G330" s="26">
+        <v>334</v>
+      </c>
+      <c r="H330" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I330" t="b">
+        <v>1</v>
+      </c>
+      <c r="J330" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K330" s="26">
+        <v>0</v>
+      </c>
+      <c r="L330" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A331" s="26">
+        <v>330</v>
+      </c>
+      <c r="B331" s="26">
+        <v>1</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D331" s="26" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G331" s="26">
+        <v>335</v>
+      </c>
+      <c r="H331" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K331" s="26">
+        <v>0</v>
+      </c>
+      <c r="L331" s="26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A332" s="26">
+        <v>331</v>
+      </c>
+      <c r="B332" s="26">
+        <v>1</v>
+      </c>
+      <c r="C332" s="26" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D332" s="26" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G332" s="26">
+        <v>336</v>
+      </c>
+      <c r="H332" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="K332" s="26">
+        <v>1603756800</v>
+      </c>
+      <c r="L332" s="26" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="100">
+        <v>332</v>
+      </c>
+      <c r="B333" s="100">
+        <v>1</v>
+      </c>
+      <c r="C333" s="101" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D333" s="101" t="s">
         <v>1862</v>
       </c>
-      <c r="E328" s="100"/>
-      <c r="F328" s="100"/>
-      <c r="G328" s="100">
-        <v>334</v>
-      </c>
-      <c r="H328" s="100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I328" s="102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" s="101" t="s">
+      <c r="E333" s="100"/>
+      <c r="F333" s="100"/>
+      <c r="G333" s="100">
+        <v>337</v>
+      </c>
+      <c r="H333" s="100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I333" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="101" t="s">
         <v>1143</v>
       </c>
-      <c r="K328" s="100">
+      <c r="K333" s="100">
         <v>1604359800</v>
       </c>
-      <c r="L328" s="101" t="s">
+      <c r="L333" s="101" t="s">
         <v>1861</v>
       </c>
+    </row>
+    <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="17"/>
+      <c r="B342" s="17"/>
+      <c r="C342" s="16"/>
+      <c r="D342" s="16"/>
+      <c r="E342" s="17"/>
+      <c r="F342" s="17"/>
+      <c r="G342" s="17"/>
+      <c r="H342" s="17"/>
+      <c r="J342" s="16"/>
+      <c r="K342" s="17"/>
+      <c r="L342" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
@@ -24953,13 +25158,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I841"/>
+  <dimension ref="A1:I858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E812" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C833" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E840" sqref="E840"/>
+      <selection pane="bottomRight" activeCell="C855" sqref="C855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44164,7 +44369,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A833" s="8">
         <v>832</v>
       </c>
@@ -44187,7 +44392,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A834" s="8">
         <v>833</v>
       </c>
@@ -44210,7 +44415,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A835" s="8">
         <v>834</v>
       </c>
@@ -44233,7 +44438,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A836" s="8">
         <v>835</v>
       </c>
@@ -44256,7 +44461,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A837" s="8">
         <v>836</v>
       </c>
@@ -44279,7 +44484,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A838" s="8">
         <v>837</v>
       </c>
@@ -44302,55 +44507,194 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="839" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A839" s="98">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A839" s="9">
         <v>838</v>
       </c>
-      <c r="B839" s="98">
+      <c r="B839" s="9">
         <v>334</v>
       </c>
-      <c r="C839" s="98" t="s">
+      <c r="C839" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="D839" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="E839" s="9">
+        <v>2</v>
+      </c>
+      <c r="F839" s="9">
+        <v>1</v>
+      </c>
+      <c r="G839" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="H839" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="I839" s="9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A840" s="9">
+        <v>839</v>
+      </c>
+      <c r="B840" s="9">
+        <v>334</v>
+      </c>
+      <c r="C840" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="D839" s="99" t="s">
+      <c r="D840" s="9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E840" s="9">
+        <v>2</v>
+      </c>
+      <c r="F840" s="9">
+        <v>1</v>
+      </c>
+      <c r="G840" s="9" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A841" s="8">
+        <v>840</v>
+      </c>
+      <c r="B841" s="9">
+        <v>335</v>
+      </c>
+      <c r="C841" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="D841" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="E841" s="9">
+        <v>2</v>
+      </c>
+      <c r="F841" s="9">
+        <v>1</v>
+      </c>
+      <c r="G841" s="53" t="s">
+        <v>876</v>
+      </c>
+      <c r="H841" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="I841" s="9" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A842" s="9">
+        <v>841</v>
+      </c>
+      <c r="B842" s="9">
+        <v>335</v>
+      </c>
+      <c r="C842" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="D842" s="9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E842" s="9">
+        <v>2</v>
+      </c>
+      <c r="F842" s="9">
+        <v>1</v>
+      </c>
+      <c r="G842" s="9" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A843" s="9">
+        <v>842</v>
+      </c>
+      <c r="B843" s="9">
+        <v>336</v>
+      </c>
+      <c r="C843" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="D843" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E843" s="9">
+        <v>5</v>
+      </c>
+      <c r="F843" s="9">
+        <v>1</v>
+      </c>
+      <c r="G843" s="9" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A844" s="98">
+        <v>843</v>
+      </c>
+      <c r="B844" s="98">
+        <v>337</v>
+      </c>
+      <c r="C844" s="98" t="s">
+        <v>898</v>
+      </c>
+      <c r="D844" s="99" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E844" s="98">
+        <v>5</v>
+      </c>
+      <c r="F844" s="98">
+        <v>1</v>
+      </c>
+      <c r="G844" s="99" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A845" s="98">
+        <v>844</v>
+      </c>
+      <c r="B845" s="98">
+        <v>337</v>
+      </c>
+      <c r="C845" s="98" t="s">
+        <v>898</v>
+      </c>
+      <c r="D845" s="99" t="s">
         <v>1864</v>
       </c>
-      <c r="E839" s="98">
+      <c r="E845" s="98">
         <v>5</v>
       </c>
-      <c r="F839" s="98">
-        <v>1</v>
-      </c>
-      <c r="G839" s="99" t="s">
+      <c r="F845" s="98">
+        <v>1</v>
+      </c>
+      <c r="G845" s="99" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="840" spans="1:7" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A840" s="98">
-        <v>839</v>
-      </c>
-      <c r="B840" s="98">
-        <v>334</v>
-      </c>
-      <c r="C840" s="98" t="s">
-        <v>898</v>
-      </c>
-      <c r="D840" s="99" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E840" s="98">
-        <v>5</v>
-      </c>
-      <c r="F840" s="98">
-        <v>1</v>
-      </c>
-      <c r="G840" s="99" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A841" s="8"/>
-      <c r="G841" s="53"/>
+    <row r="854" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D854" s="10"/>
+      <c r="G854" s="10"/>
+    </row>
+    <row r="855" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D855" s="10"/>
+      <c r="G855" s="10"/>
+    </row>
+    <row r="857" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D857" s="10"/>
+      <c r="G857" s="10"/>
+    </row>
+    <row r="858" spans="4:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D858" s="10"/>
+      <c r="G858" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_11.3/permission_server_config.xlsx
+++ b/config_11.3/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="1879">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8717,10 +8717,6 @@
     <t>冲金鸡的全渠道</t>
   </si>
   <si>
-    <t>非小米、vivo才显示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8729,7 +8725,75 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_xyxfl</t>
+    <t>小游戏福利（非CPS渠道）</t>
+  </si>
+  <si>
+    <r>
+      <t>2020年11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日23:59:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结束</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年11月9日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_034_xyxfl</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -8948,7 +9012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9217,6 +9281,13 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9494,11 +9565,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q409"/>
+  <dimension ref="A1:Q407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A409" sqref="A409"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B418" sqref="B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13824,17 +13895,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" s="3" t="s">
-        <v>1876</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C409" s="3">
-        <v>337</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13848,10 +13908,10 @@
   <dimension ref="A1:O342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D326" sqref="D326"/>
+      <selection pane="bottomRight" activeCell="G332" sqref="G332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24924,7 +24984,7 @@
         <v>1603756800</v>
       </c>
       <c r="L327" s="30" t="s">
-        <v>1822</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -25055,18 +25115,39 @@
         <v>469</v>
       </c>
     </row>
-    <row r="332" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="17"/>
-      <c r="B332" s="17"/>
-      <c r="C332" s="16"/>
-      <c r="D332" s="16"/>
-      <c r="E332" s="17"/>
-      <c r="F332" s="17"/>
-      <c r="G332" s="17"/>
-      <c r="H332" s="17"/>
-      <c r="J332" s="16"/>
-      <c r="K332" s="17"/>
-      <c r="L332" s="16"/>
+    <row r="332" spans="1:12" s="102" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="100">
+        <v>331</v>
+      </c>
+      <c r="B332" s="100">
+        <v>1</v>
+      </c>
+      <c r="C332" s="101" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D332" s="101" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E332" s="100"/>
+      <c r="F332" s="100"/>
+      <c r="G332" s="100">
+        <v>336</v>
+      </c>
+      <c r="H332" s="100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I332" s="102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" s="100" t="s">
+        <v>468</v>
+      </c>
+      <c r="K332" s="100">
+        <v>1604359800</v>
+      </c>
+      <c r="L332" s="101" t="s">
+        <v>1877</v>
+      </c>
     </row>
     <row r="342" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
@@ -25094,11 +25175,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I858"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E832" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C816" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G844" sqref="G844"/>
+      <selection pane="bottomRight" activeCell="B843" sqref="B843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44545,50 +44626,27 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A843" s="9">
+    <row r="843" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A843" s="98">
         <v>842</v>
       </c>
-      <c r="B843" s="9">
+      <c r="B843" s="98">
         <v>336</v>
       </c>
-      <c r="C843" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="D843" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="E843" s="9">
+      <c r="C843" s="98" t="s">
+        <v>898</v>
+      </c>
+      <c r="D843" s="99" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E843" s="98">
         <v>5</v>
       </c>
-      <c r="F843" s="9">
-        <v>1</v>
-      </c>
-      <c r="G843" s="9" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="844" spans="1:9" s="98" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A844" s="98">
-        <v>843</v>
-      </c>
-      <c r="B844" s="98">
-        <v>337</v>
-      </c>
-      <c r="C844" s="98" t="s">
-        <v>898</v>
-      </c>
-      <c r="D844" s="99" t="s">
+      <c r="F843" s="98">
+        <v>1</v>
+      </c>
+      <c r="G843" s="99" t="s">
         <v>1874</v>
-      </c>
-      <c r="E844" s="98">
-        <v>5</v>
-      </c>
-      <c r="F844" s="98">
-        <v>1</v>
-      </c>
-      <c r="G844" s="99" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="845" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -44624,7 +44682,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_11.3/permission_server_config.xlsx
+++ b/config_11.3/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="1879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="1882">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8790,6 +8790,18 @@
   </si>
   <si>
     <t>2020年11月9日23:59:59结束</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>market_channel</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -13907,11 +13919,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E311" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G332" sqref="G332"/>
+      <selection pane="bottomRight" activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25123,7 +25135,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="101" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="D332" s="101" t="s">
         <v>1875</v>
@@ -25143,7 +25155,7 @@
         <v>468</v>
       </c>
       <c r="K332" s="100">
-        <v>1604359800</v>
+        <v>1604332800</v>
       </c>
       <c r="L332" s="101" t="s">
         <v>1877</v>
@@ -25175,11 +25187,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I858"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C816" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B843" sqref="B843"/>
+      <selection pane="bottomRight" activeCell="D843" sqref="D843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44611,7 +44623,7 @@
         <v>335</v>
       </c>
       <c r="C842" s="9" t="s">
-        <v>898</v>
+        <v>1880</v>
       </c>
       <c r="D842" s="9" t="s">
         <v>1871</v>
@@ -44634,7 +44646,7 @@
         <v>336</v>
       </c>
       <c r="C843" s="98" t="s">
-        <v>898</v>
+        <v>1879</v>
       </c>
       <c r="D843" s="99" t="s">
         <v>1873</v>
@@ -44682,7 +44694,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44861,7 +44873,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>1650</v>
+        <v>1878</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>898</v>
